--- a/Results/Streaks/Streaks_vMaster.xlsx
+++ b/Results/Streaks/Streaks_vMaster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\danie\dropbox\projects\fellyjish\results\streaks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF522618-61E6-432D-8A04-3BA9B03A6AB0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27EE5E36-72CE-4B53-AE39-A5201DDE7D49}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2385" yWindow="3000" windowWidth="16440" windowHeight="12600" xr2:uid="{A37D13D7-27C4-4692-9953-C5F78D4BD01D}"/>
   </bookViews>

--- a/Results/Streaks/Streaks_vMaster.xlsx
+++ b/Results/Streaks/Streaks_vMaster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\danie\dropbox\projects\fellyjish\results\streaks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27EE5E36-72CE-4B53-AE39-A5201DDE7D49}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DD4FA22-6A40-4518-B74B-B1304159F1DF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="3000" windowWidth="16440" windowHeight="12600" xr2:uid="{A37D13D7-27C4-4692-9953-C5F78D4BD01D}"/>
+    <workbookView xWindow="1590" yWindow="1620" windowWidth="10960" windowHeight="8400" xr2:uid="{A37D13D7-27C4-4692-9953-C5F78D4BD01D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
